--- a/method.xlsx
+++ b/method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\junho\Desktop\FCC\FCC Project\JAVA_Telephone Number Validator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5CB7B3-9324-4D84-AB7F-6577A54F7B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436A3298-1BE8-4692-8A7A-0B92EBC986D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="240" windowWidth="17280" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,23 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>Criteria</t>
   </si>
   <si>
-    <t>length of the number should be 10/11</t>
-  </si>
-  <si>
     <t>if length is 11, first number should be 1</t>
   </si>
   <si>
-    <t>could only have '(' ')' ' ' '-' this four punctuation</t>
-  </si>
-  <si>
-    <t>use /\d/g match() length to test</t>
-  </si>
-  <si>
     <t>use /\d/g match() length [0] to test</t>
   </si>
   <si>
@@ -606,13 +597,25 @@
   </si>
   <si>
     <t>return true if pass step5 regex.test()</t>
+  </si>
+  <si>
+    <t>could only have '(' ')' ' ' '-' this four punctuation and [0-9]</t>
+  </si>
+  <si>
+    <t>//as the regex use only involve these, no need to test again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use /\d/g match() length </t>
+  </si>
+  <si>
+    <t>length of the number should be 10/11, use this to split to 10/11/return false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +633,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,13 +699,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +999,7 @@
     <col min="2" max="2" width="57.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.88671875" customWidth="1"/>
     <col min="4" max="4" width="32.109375" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
@@ -1004,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1015,21 +1027,24 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D5">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
+      <c r="I5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1037,320 +1052,320 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
       <c r="L18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1358,27 +1373,27 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1386,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
